--- a/Docs/Database Model.xlsx
+++ b/Docs/Database Model.xlsx
@@ -1,30 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Robax/amos-ss16-proj6/amos-ss16-proj6-Rene-test/Docs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620" tabRatio="500"/>
-  </bookViews>
   <sheets>
-    <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="V1.0" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="V2.0" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
   <si>
     <t>Raw Data</t>
   </si>
@@ -137,48 +125,115 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Model by: Rene and Daniel</t>
+    <t>tblTimeStampData</t>
+  </si>
+  <si>
+    <t>tblSessions</t>
+  </si>
+  <si>
+    <t>idSession</t>
+  </si>
+  <si>
+    <t>idTimeStampData</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>fidSession</t>
+  </si>
+  <si>
+    <t>fidCarrier</t>
+  </si>
+  <si>
+    <t>tblIterations</t>
+  </si>
+  <si>
+    <t>fidIteration</t>
+  </si>
+  <si>
+    <t>idIteration</t>
+  </si>
+  <si>
+    <t>timeStamp</t>
+  </si>
+  <si>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t>positionOnDrive</t>
+  </si>
+  <si>
+    <t>positionAbsolute</t>
+  </si>
+  <si>
+    <t>tblCarriers</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>idCarriers</t>
+  </si>
+  <si>
+    <t>accelaration</t>
+  </si>
+  <si>
+    <t>Carrier</t>
+  </si>
+  <si>
+    <t>tblIterationData</t>
+  </si>
+  <si>
+    <t>idIterationData</t>
+  </si>
+  <si>
+    <t>totalEnergyConsumption</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
+    <font/>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
+      <sz val="8.0"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <color rgb="FF38761D"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -192,6 +247,12 @@
         <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -199,7 +260,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -214,325 +274,110 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="25">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="56.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="105" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="56.86"/>
+    <col customWidth="1" min="3" max="3" width="16.57"/>
+    <col customWidth="1" min="4" max="4" width="105.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +385,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -554,7 +399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22" x14ac:dyDescent="0.15">
+    <row r="3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -569,7 +414,7 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="4">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -577,13 +422,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="5">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="5">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -591,14 +436,14 @@
         <v>10</v>
       </c>
       <c r="C5" s="5">
-        <v>120</v>
+        <v>120.0</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="6">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -606,13 +451,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="5">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="7">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -620,13 +465,13 @@
         <v>15</v>
       </c>
       <c r="C7" s="5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="8">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -634,13 +479,13 @@
         <v>10</v>
       </c>
       <c r="C8" s="5">
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -654,7 +499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="12">
       <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
@@ -662,7 +507,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="13">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,7 +521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="22" x14ac:dyDescent="0.15">
+    <row r="14">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -690,7 +535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="15">
       <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
@@ -704,7 +549,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
@@ -712,13 +557,13 @@
         <v>15</v>
       </c>
       <c r="C16" s="5">
-        <v>9.9999999999999995E-7</v>
+        <v>1.0E-6</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
@@ -726,13 +571,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="5">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="18">
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
@@ -740,13 +585,13 @@
         <v>15</v>
       </c>
       <c r="C18" s="5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" ht="40.5" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>33</v>
       </c>
@@ -763,12 +608,273 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10" t="s">
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="31.71"/>
+    <col customWidth="1" min="4" max="4" width="14.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13">
+      <c r="C13" s="22"/>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21">
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22">
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23">
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24">
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/Database Model.xlsx
+++ b/Docs/Database Model.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="59">
   <si>
     <t>Raw Data</t>
   </si>
@@ -173,7 +173,7 @@
     <t>speed</t>
   </si>
   <si>
-    <t>idCarriers</t>
+    <t>idCarrier</t>
   </si>
   <si>
     <t>accelaration</t>
@@ -198,7 +198,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -225,7 +225,13 @@
       <color rgb="FF000000"/>
     </font>
     <font>
+      <color rgb="FF274E13"/>
+    </font>
+    <font>
       <color rgb="FF38761D"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
     </font>
   </fonts>
   <fills count="5">
@@ -279,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -325,13 +331,16 @@
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -654,7 +663,7 @@
       <c r="A3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="17"/>
@@ -666,36 +675,36 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
+      <c r="B4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="20"/>
+      <c r="B5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="21"/>
       <c r="D5" s="11" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="12"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="20"/>
+      <c r="B6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="21"/>
       <c r="D6" s="14" t="s">
         <v>46</v>
       </c>
@@ -710,7 +719,7 @@
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="18" t="s">
         <v>48</v>
       </c>
@@ -725,8 +734,8 @@
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
@@ -735,7 +744,7 @@
       <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="11" t="s">
         <v>51</v>
       </c>
@@ -748,7 +757,7 @@
       <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="14" t="s">
         <v>53</v>
       </c>
@@ -763,7 +772,7 @@
       <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="18" t="s">
         <v>55</v>
       </c>
@@ -778,11 +787,11 @@
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="21"/>
     </row>
     <row r="13">
-      <c r="C13" s="22"/>
-      <c r="D13" s="21"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="22"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
@@ -790,7 +799,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="23"/>
+      <c r="D14" s="24"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
@@ -803,76 +812,106 @@
       <c r="D15" s="10"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="A17" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
+      <c r="A18" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="A19" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-    </row>
-    <row r="21">
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-    </row>
-    <row r="22">
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-    </row>
-    <row r="23">
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
     </row>
     <row r="24">
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
     </row>
     <row r="25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+    </row>
+    <row r="26">
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27">
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
